--- a/spliced/struggle/2023-04-11_10-08-48/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-08-48/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3721696436405182</v>
+        <v>-0.6229298114776611</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.498425245285034</v>
+        <v>-4.338823318481445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6684392690658569</v>
+        <v>0.1601994037628173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1207986027002334</v>
+        <v>-0.3721696436405182</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.66308057308197</v>
+        <v>-3.498425245285034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5348125100135803</v>
+        <v>0.6684392690658569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5253441333770752</v>
+        <v>0.1207986027002334</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.381013631820679</v>
+        <v>-1.66308057308197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5633704662322998</v>
+        <v>0.5348125100135803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5025894045829773</v>
+        <v>-0.5253441333770752</v>
       </c>
       <c r="B5" t="n">
-        <v>2.330298185348511</v>
+        <v>-1.381013631820679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1441642045974731</v>
+        <v>0.5633704662322998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8329147696495056</v>
+        <v>0.5025894045829773</v>
       </c>
       <c r="B6" t="n">
-        <v>6.17554235458374</v>
+        <v>2.330298185348511</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.043815970420837</v>
+        <v>0.1441642045974731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0348193198442459</v>
+        <v>0.8329147696495056</v>
       </c>
       <c r="B7" t="n">
-        <v>5.04437255859375</v>
+        <v>6.17554235458374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.868803083896637</v>
+        <v>-1.043815970420837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2368630021810531</v>
+        <v>0.0348193198442459</v>
       </c>
       <c r="B8" t="n">
-        <v>1.756695747375489</v>
+        <v>5.04437255859375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.40943244099617</v>
+        <v>0.868803083896637</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0340557359158992</v>
+        <v>-0.2368630021810531</v>
       </c>
       <c r="B9" t="n">
-        <v>2.139860868453979</v>
+        <v>1.756695747375489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6606507897377014</v>
+        <v>0.40943244099617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1806633919477462</v>
+        <v>-0.0340557359158992</v>
       </c>
       <c r="B10" t="n">
-        <v>1.172861218452454</v>
+        <v>2.139860868453979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4958698749542236</v>
+        <v>0.6606507897377014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08704829961061469</v>
+        <v>0.1806633919477462</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.714518785476685</v>
+        <v>1.172861218452454</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6794348955154419</v>
+        <v>0.4958698749542236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1391245573759079</v>
+        <v>0.08704829961061469</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.393468379974365</v>
+        <v>-3.714518785476685</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.738176345825195</v>
+        <v>-0.6794348955154419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.760971784591675</v>
+        <v>0.1391245573759079</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.517847418785095</v>
+        <v>-6.393468379974365</v>
       </c>
       <c r="C13" t="n">
-        <v>1.018465042114258</v>
+        <v>-4.738176345825195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.008552113547921099</v>
+        <v>1.760971784591675</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.238488674163818</v>
+        <v>-1.517847418785095</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0195476878434419</v>
+        <v>1.018465042114258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4407392740249634</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.014314651489258</v>
+        <v>-4.238488674163818</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6562219858169556</v>
+        <v>-0.0195476878434419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1287398487329483</v>
+        <v>0.4407392740249634</v>
       </c>
       <c r="B16" t="n">
-        <v>2.51019811630249</v>
+        <v>-3.014314651489258</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0731511116027832</v>
+        <v>-0.6562219858169556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2913827300071716</v>
+        <v>-0.1287398487329483</v>
       </c>
       <c r="B17" t="n">
-        <v>6.333756446838379</v>
+        <v>2.51019811630249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9952521920204164</v>
+        <v>-0.0731511116027832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.667662143707275</v>
+        <v>0.2913827300071716</v>
       </c>
       <c r="B18" t="n">
-        <v>4.299574851989746</v>
+        <v>6.333756446838379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.9952521920204164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.54808521270752</v>
+        <v>-1.667662143707275</v>
       </c>
       <c r="B19" t="n">
-        <v>2.839301586151123</v>
+        <v>4.299574851989746</v>
       </c>
       <c r="C19" t="n">
-        <v>1.368032693862915</v>
+        <v>0.0829249545931816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0797179117798805</v>
+        <v>1.54808521270752</v>
       </c>
       <c r="B20" t="n">
-        <v>3.36098051071167</v>
+        <v>2.839301586151123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3753767013549804</v>
+        <v>1.368032693862915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.0797179117798805</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.36098051071167</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3753767013549804</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>0.4167627990245819</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>1.646892666816711</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>0.836885392665863</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5007568001747131</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.671174645423889</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2092213481664657</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0099265603348612</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-3.577379703521729</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4952589869499206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.279915452003479</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-6.508005619049072</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1085812970995903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.9758572578430176</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.915215253829956</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.272432327270508</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0806342139840126</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.140027284622192</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0485637858510017</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.8413141369819641</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.3859141170978546</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5590944290161133</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1750128865242004</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.383749008178711</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1401935666799545</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4100432991981506</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.355190992355347</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1059851199388504</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.6436992287635803</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6840163469314575</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.07849618047475811</v>
       </c>
     </row>
   </sheetData>
